--- a/Files/Excel/Kia.xlsx
+++ b/Files/Excel/Kia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\OneDrive\Área de Trabalho\autoSINP\Files\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\Desktop\AfterLifeDeath\SINP\autoSINP\Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D220EDE7-27B8-48FF-BC98-3153A7BF8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACC594-8B38-4846-B30B-E3991C112B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,150 +20,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
   <si>
     <t>serie</t>
   </si>
   <si>
-    <t>Kia Amanti</t>
-  </si>
-  <si>
-    <t>Kia Avella</t>
-  </si>
-  <si>
-    <t>Kia Besta</t>
-  </si>
-  <si>
-    <t>Kia Bongo</t>
-  </si>
-  <si>
-    <t>Kia Borrego</t>
-  </si>
-  <si>
-    <t>Kia Brisa</t>
-  </si>
-  <si>
-    <t>Kia Cadenza</t>
-  </si>
-  <si>
-    <t>Kia Carens</t>
-  </si>
-  <si>
-    <t>Kia Carnival</t>
-  </si>
-  <si>
-    <t>Kia Cee'd</t>
-  </si>
-  <si>
-    <t>Kia Cerato</t>
-  </si>
-  <si>
-    <t>Kia Clarus</t>
-  </si>
-  <si>
-    <t>Kia Credos</t>
-  </si>
-  <si>
-    <t>Kia Elan</t>
-  </si>
-  <si>
-    <t>Hyundai Entourage</t>
-  </si>
-  <si>
-    <t>Kia Forte</t>
-  </si>
-  <si>
-    <t>Kia Grand Carnival</t>
-  </si>
-  <si>
-    <t>Kia K9</t>
-  </si>
-  <si>
-    <t>Kia K2500</t>
-  </si>
-  <si>
-    <t>Kia KND-4 Concept</t>
-  </si>
-  <si>
-    <t>Kia KOUP Concept</t>
-  </si>
-  <si>
-    <t>Kia Kue</t>
-  </si>
-  <si>
-    <t>Kia Lotze</t>
-  </si>
-  <si>
-    <t>Kia Magentis</t>
-  </si>
-  <si>
-    <t>Kia Mentor</t>
-  </si>
-  <si>
-    <t>Kia Mohave</t>
-  </si>
-  <si>
-    <t>Kia Morning</t>
-  </si>
-  <si>
-    <t>Kia Opirus</t>
-  </si>
-  <si>
-    <t>Optima-Regal</t>
-  </si>
-  <si>
-    <t>Kia Picanto</t>
-  </si>
-  <si>
-    <t>Kia Pop</t>
-  </si>
-  <si>
-    <t>Kia Pride</t>
-  </si>
-  <si>
-    <t>Kia Pro-cee'd</t>
-  </si>
-  <si>
-    <t>Kia Quoris</t>
-  </si>
-  <si>
-    <t>Kia Rio</t>
-  </si>
-  <si>
-    <t>Kia Rio Cinco</t>
-  </si>
-  <si>
-    <t>Kia Sedona</t>
-  </si>
-  <si>
-    <t>Kia Sephia</t>
-  </si>
-  <si>
-    <t>Kia Sorento</t>
-  </si>
-  <si>
-    <t>Kia Soul</t>
-  </si>
-  <si>
-    <t>Kia Soul'ster</t>
-  </si>
-  <si>
-    <t>Kia Spectra</t>
-  </si>
-  <si>
-    <t>Kia Sportage</t>
-  </si>
-  <si>
-    <t>Kia Stonic</t>
-  </si>
-  <si>
-    <t>Kia Venga</t>
-  </si>
-  <si>
-    <t>Kia Visto</t>
-  </si>
-  <si>
     <t>marca</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Amanti</t>
+  </si>
+  <si>
+    <t>Avella</t>
+  </si>
+  <si>
+    <t>Besta</t>
+  </si>
+  <si>
+    <t>Bongo</t>
+  </si>
+  <si>
+    <t>Borrego</t>
+  </si>
+  <si>
+    <t>Brisa</t>
+  </si>
+  <si>
+    <t>Cadenza</t>
+  </si>
+  <si>
+    <t>Carens</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>Cee'd</t>
+  </si>
+  <si>
+    <t>Cerato</t>
+  </si>
+  <si>
+    <t>Clarus</t>
+  </si>
+  <si>
+    <t>Credos</t>
+  </si>
+  <si>
+    <t>Elan</t>
+  </si>
+  <si>
+    <t>Entourage</t>
+  </si>
+  <si>
+    <t>Forte</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Kue</t>
+  </si>
+  <si>
+    <t>Lotze</t>
+  </si>
+  <si>
+    <t>Magentis</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Mohave</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Opirus</t>
+  </si>
+  <si>
+    <t>Regal</t>
+  </si>
+  <si>
+    <t>Picanto</t>
+  </si>
+  <si>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>cee'd</t>
+  </si>
+  <si>
+    <t>Quoris</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>Cinco</t>
+  </si>
+  <si>
+    <t>Sedona</t>
+  </si>
+  <si>
+    <t>Sephia</t>
+  </si>
+  <si>
+    <t>Sorento</t>
+  </si>
+  <si>
+    <t>Soul</t>
+  </si>
+  <si>
+    <t>Soul'ster</t>
+  </si>
+  <si>
+    <t>Spectra</t>
+  </si>
+  <si>
+    <t>Sportage</t>
+  </si>
+  <si>
+    <t>Stonic</t>
+  </si>
+  <si>
+    <t>Venga</t>
+  </si>
+  <si>
+    <t>Visto</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Kia</t>
   </si>
 </sst>
 </file>
@@ -526,391 +523,532 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>2500</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
         <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
